--- a/botCode/excelDatabase/10class/10class.xlsx
+++ b/botCode/excelDatabase/10class/10class.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\работа\excelDatabase\10class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -712,49 +717,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>перерыв 30 минут</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Электив по физике</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Суббота</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ко 2-му уроку</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="5.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -805,12 +767,21 @@
   </si>
   <si>
     <t>Электив по физике</t>
+  </si>
+  <si>
+    <t>ко 2-му уроку</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>перерыв 30 минут</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -992,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1044,12 +1015,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1068,12 +1057,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
@@ -1086,18 +1069,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
@@ -1122,8 +1093,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,6 +1108,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,7 +1159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,7 +1194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71:J72"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1462,36 +1439,36 @@
       <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1888,20 +1865,20 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="88.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
@@ -1932,36 +1909,36 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2372,36 +2349,36 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -2711,10 +2688,10 @@
       <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="30"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="10"/>
       <c r="I43" s="1" t="s">
         <v>31</v>
@@ -2800,36 +2777,36 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="21"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -3151,10 +3128,10 @@
       <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="32"/>
+      <c r="F57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="44"/>
       <c r="H57" s="10"/>
       <c r="I57" s="1" t="s">
         <v>31</v>
@@ -3181,10 +3158,10 @@
       <c r="E58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="27" t="s">
+      <c r="F58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="11">
@@ -3207,8 +3184,10 @@
       <c r="E59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="28"/>
+      <c r="F59" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="32"/>
       <c r="H59" s="11">
         <v>308</v>
       </c>
@@ -3234,36 +3213,36 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="21"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -3319,10 +3298,10 @@
       <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="26"/>
+      <c r="F64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="21"/>
       <c r="H64" s="10"/>
       <c r="I64" s="1" t="s">
         <v>8</v>
@@ -3354,10 +3333,10 @@
         <v>15</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H65" s="11">
         <v>404</v>
@@ -3404,13 +3383,13 @@
         <v>16</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3432,9 +3411,7 @@
       <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="11">
         <v>308</v>
       </c>
@@ -3442,23 +3419,23 @@
         <v>23</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="11">
@@ -3480,10 +3457,10 @@
         <v>24</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L68" s="11">
         <v>404</v>
@@ -3493,8 +3470,10 @@
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="28"/>
+      <c r="B69" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="32"/>
       <c r="D69" s="11">
         <v>308</v>
       </c>
@@ -3526,10 +3505,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" s="11">
         <v>404</v>
@@ -3583,10 +3562,10 @@
       <c r="I71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J71" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="K71" s="17" t="s">
+      <c r="J71" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K71" s="24" t="s">
         <v>14</v>
       </c>
       <c r="L71" s="11">
@@ -3613,8 +3592,10 @@
       <c r="I72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
+      <c r="J72" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K72" s="23"/>
       <c r="L72" s="11">
         <v>308</v>
       </c>
@@ -3640,7 +3621,7 @@
       <c r="L73" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="18">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -3654,15 +3635,10 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A47:L47"/>
     <mergeCell ref="A48:L48"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:F59"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="J71:J72"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="A61:L61"/>
     <mergeCell ref="A62:L62"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
